--- a/mortality_wide.xlsx
+++ b/mortality_wide.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>01-04 Years</t>
-  </si>
-  <si>
-    <t>05-09 Years</t>
-  </si>
-  <si>
-    <t>10-14 Years</t>
-  </si>
-  <si>
-    <t>15-19 Years</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,2054 +420,2070 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>01-04 Years</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>05-09 Years</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>10-14 Years</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>15-19 Years</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1900</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0.019838</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>0.004661</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.002983</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.004848</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1901</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>0.01695</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>0.004276</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.002736</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.004543999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>1902</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>0.016557</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>0.004033</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.002525</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.004215</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>1903</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.015421</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>0.004147</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.002682</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.004341</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>1904</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>0.015915</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>0.00425</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.003052</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.004713999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>1905</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>0.014989</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>0.003963</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.002798</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.004393</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>1906</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>0.0158</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>0.003774</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.002722</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.004452</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>1907</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>0.014683</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.003656</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.002658</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.004377</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>1908</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>0.013968</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>0.003542</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.002479</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.003977</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>1909</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>0.013489</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0.003302</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>0.002305</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>0.003636</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>1910</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>0.013973</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>0.003484</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>0.002359</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>0.003719</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>1911</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>0.01176</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>0.0031</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>0.002222</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>0.00366</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>1912</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>0.010941</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>0.002875</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>0.002022</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>0.003472</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>1913</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>0.011934</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0.003177</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>0.002148</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>0.003603</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>1914</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>0.010242</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>0.002916</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>0.002072</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>0.003405</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>1915</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>0.009242</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>0.002606</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0.001967</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>0.003309</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>1916</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>0.011115</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>0.002824</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>0.002051</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>0.003558</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>1917</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>0.01066</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>0.002907</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>0.002189</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>0.003803</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>1918</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>0.015735</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>0.004478999999999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0.003751</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>0.007774</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>1919</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>0.00928</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>0.003</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0.002364</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>0.004385</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>1920</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>0.009872000000000001</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>0.002952</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>0.002299</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>0.004029</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>1921</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>0.008012</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>0.002814</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>0.002099</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>0.003265</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>1922</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>0.00742</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>0.002396</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>0.001866</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>0.003196</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>1923</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>0.008067000000000001</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0.0024</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>0.001882</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>0.003258</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>1924</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>0.006832</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>0.002217</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>0.001798</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>0.003135</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>1925</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>0.00641</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0.002115</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>0.00181</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>0.00314</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>1926</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>0.007234</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>0.002138</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>0.001714</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>0.003075</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>1927</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>0.00591</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>0.002083</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>0.001675</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>0.002895</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>1928</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>0.006475</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>0.002131</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>0.001738</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>0.003078</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>1929</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>0.006255</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>0.00208</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>0.00165</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>0.00298</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>1930</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>0.005636</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>0.001898</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>0.001528</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>0.002778</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>1931</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>0.005266</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>0.00182</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>0.001503</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>0.002635</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>1932</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>0.004619</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>0.001659</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>0.001422</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>0.002375</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>1933</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>0.004726</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>0.001613</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>0.00138</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>0.002234</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>1934</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>0.005077</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>0.001651</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>0.001415</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>0.00224</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>1935</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>0.004409</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0.001624</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>0.001434</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>0.002223</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>1936</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>0.004398</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>0.001546</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>0.00141</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>0.002304</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>1937</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>0.004187</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>0.001429</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>0.001283</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>0.00219</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>1938</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>0.003838</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0.001288</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>0.001138</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>0.001923</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>1939</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>0.003183</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>0.001126</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>0.001065</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>0.001798</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>1940</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>0.002896</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>0.001083</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>0.000995</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>0.001716</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>1941</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>0.002799</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>0.001038</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>0.000947</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>0.00169</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>1942</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>0.002434</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>0.0009609999999999999</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>0.0008579999999999999</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>0.001547</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>1943</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>0.002564</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>0.001031</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>0.0009059999999999999</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>0.00164</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>1944</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>0.00233</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>0.000987</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>0.000897</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>0.001579</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>1945</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>0.00203</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>0.000936</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>0.000868</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>0.001523</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>1946</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>0.001815</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>0.000856</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>0.0007859999999999999</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>0.001378</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>1947</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>0.001608</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>0.0007329999999999999</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>0.000679</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>0.001268</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>1948</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>0.001601</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>0.0007059999999999999</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>0.0006559999999999999</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>0.001187</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>1949</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>0.001502</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>0.000682</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>0.0006360000000000001</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>0.001118</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1">
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>1950</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>0.001394</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>0.000617</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>0.000581</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>0.001086</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1">
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>0.001369</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>0.000617</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>0.0005639999999999999</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>0.001089</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="1">
+    <row r="54">
+      <c r="A54" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>0.001411</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>0.0006129999999999999</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>0.0005679999999999999</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>0.001144</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1">
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>0.0013</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>0.000561</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>0.000531</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>0.001069</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1">
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>0.001183</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>0.000525</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>0.000478</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>0.0009609999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1">
+    <row r="57">
+      <c r="A57" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>0.001134</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>0.000506</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>0.000466</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>0.000973</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1">
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>0.001102</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>0.000483</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>0.000463</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>0.000972</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1">
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>0.001118</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>0.000501</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>0.000474</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>0.001002</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1">
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>0.001117</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>0.000484</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>0.000446</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>0.000915</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1">
+    <row r="61">
+      <c r="A61" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>0.001069</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>0.000494</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>0.000458</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>0.000928</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1">
+    <row r="62">
+      <c r="A62" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>0.001091</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>0.00049</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>0.00044</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>0.0009220000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1">
+    <row r="63">
+      <c r="A63" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>0.001017</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>0.000458</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>0.000419</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>0.0008809999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1">
+    <row r="64">
+      <c r="A64" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>0.000992</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>0.000456</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>0.000419</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>0.0008759999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1">
+    <row r="65">
+      <c r="A65" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>0.001015</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>0.000453</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>0.000412</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>0.000905</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1">
+    <row r="66">
+      <c r="A66" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>0.000985</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>0.000446</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>0.000416</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>0.0009390000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1">
+    <row r="67">
+      <c r="A67" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>0.0009590000000000001</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>0.000439</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>0.000405</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>0.000953</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
+    <row r="68">
+      <c r="A68" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>0.000964</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>0.000443</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>0.000411</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>0.00102</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1">
+    <row r="69">
+      <c r="A69" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>0.000894</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>0.000429</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>0.000405</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>0.001021</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1">
+    <row r="70">
+      <c r="A70" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>0.000896</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>0.000445</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>0.000416</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>0.001081</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
+    <row r="71">
+      <c r="A71" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>0.00088</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>0.00044</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>0.000413</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>0.001135</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
+    <row r="72">
+      <c r="A72" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>0.000845</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>0.000421</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>0.000406</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>0.001103</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
+    <row r="73">
+      <c r="A73" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>0.0008229999999999999</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>0.00042</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>0.000399</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>0.001103</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
+    <row r="74">
+      <c r="A74" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>0.000804</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>0.000408</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>0.000404</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>0.001104</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
+    <row r="75">
+      <c r="A75" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>0.00079</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>0.000411</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>0.000403</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>0.00111</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>0.0007329999999999999</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>0.000372</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>0.000383</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>0.001048</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
+    <row r="77">
+      <c r="A77" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>0.0006990000000000001</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>0.000352</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>0.000353</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>0.001002</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1">
+    <row r="78">
+      <c r="A78" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>0.0006879999999999999</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>0.000341</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>0.000342</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>0.0009570000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
+    <row r="79">
+      <c r="A79" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>0.000676</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>0.000333</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>0.000346</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>0.000998</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1">
+    <row r="80">
+      <c r="A80" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>0.000679</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>0.000327</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>0.000337</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>0.0009890000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1">
+    <row r="81">
+      <c r="A81" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>0.000642</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>0.000311</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>0.000318</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>0.0009879999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1">
+    <row r="82">
+      <c r="A82" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>0.000639</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>0.000304</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>0.000308</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>0.0009790000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="1">
+    <row r="83">
+      <c r="A83" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>0.000606</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>0.000291</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>0.000295</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>0.0009</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1">
+    <row r="84">
+      <c r="A84" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>0.0005820000000000001</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>0.000283</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>0.000282</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>0.000854</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1">
+    <row r="85">
+      <c r="A85" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>0.000561</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>0.000265</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>0.000273</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>0.000811</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
+    <row r="86">
+      <c r="A86" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>0.000522</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>0.000253</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>0.000283</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>0.000804</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1">
+    <row r="87">
+      <c r="A87" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>0.000518</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>0.00025</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>0.00028</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>0.0008050000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1">
+    <row r="88">
+      <c r="A88" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>0.0005239999999999999</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>0.000239</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>0.000286</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>0.000862</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="1">
+    <row r="89">
+      <c r="A89" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>0.000521</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>0.000247</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>0.000271</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>0.000835</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1">
+    <row r="90">
+      <c r="A90" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>0.000515</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>0.000245</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>0.000277</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>0.000867</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1">
+    <row r="91">
+      <c r="A91" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>0.000498</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>0.000241</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>0.000274</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>0.0008590000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1">
+    <row r="92">
+      <c r="A92" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>0.000468</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>0.000222</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>0.00026</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>0.000879</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1">
+    <row r="93">
+      <c r="A93" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>0.000474</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>0.000215</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>0.000256</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>0.000887</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
+    <row r="94">
+      <c r="A94" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>0.000435</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>0.000203</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>0.000244</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>0.0008359999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
+    <row r="95">
+      <c r="A95" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>0.000446</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>0.00021</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>0.000253</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>0.0008579999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
+    <row r="96">
+      <c r="A96" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>0.000427</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>0.000197</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>0.000248</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>0.000855</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1">
+    <row r="97">
+      <c r="A97" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>0.000404</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>0.000194</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>0.000251</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>0.0008209999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1">
+    <row r="98">
+      <c r="A98" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>0.00038</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>0.00019</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>0.000234</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>0.000775</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="1">
+    <row r="99">
+      <c r="A99" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>0.000355</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>0.00018</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>0.000225</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>0.0007359999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1">
+    <row r="100">
+      <c r="A100" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>0.000341</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>0.000172</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>0.000215</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>0.000695</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1">
+    <row r="101">
+      <c r="A101" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>0.000342</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>0.000169</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>0.000204</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>0.000686</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1">
+    <row r="102">
+      <c r="A102" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>0.000324</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>0.000158</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>0.000203</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>0.0006709999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1">
+    <row r="103">
+      <c r="A103" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>0.000334</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>0.000153</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>0.000191</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>0.000663</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1">
+    <row r="104">
+      <c r="A104" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>0.000314</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>0.000152</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>0.000194</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>0.00067</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1">
+    <row r="105">
+      <c r="A105" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>0.000318</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>0.000148</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>0.000189</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>0.0006540000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1">
+    <row r="106">
+      <c r="A106" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>0.000303</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>0.000148</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>0.000184</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>0.0006490000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1">
+    <row r="107">
+      <c r="A107" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>0.000299</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>0.000146</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>0.000177</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>0.000638</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1">
+    <row r="108">
+      <c r="A108" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>0.000291</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>0.00014</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>0.000162</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>0.00063</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1">
+    <row r="109">
+      <c r="A109" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>0.000294</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>0.000138</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>0.000165</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>0.000603</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1">
+    <row r="110">
+      <c r="A110" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>0.000293</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>0.000126</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>0.000152</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>0.000559</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1">
+    <row r="111">
+      <c r="A111" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>0.000274</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>0.000125</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>0.000151</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>0.000519</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1">
+    <row r="112">
+      <c r="A112" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>0.000265</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>0.000115</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>0.000143</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>0.000494</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
+    <row r="113">
+      <c r="A113" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>0.000263</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>0.000121</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>0.000142</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>0.000489</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
+    <row r="114">
+      <c r="A114" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="n">
         <v>0.000263</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>0.000114</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>0.000139</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>0.000472</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1">
+    <row r="115">
+      <c r="A115" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="B115">
+      <c r="B115" t="n">
         <v>0.000255</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>0.000118</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>0.000141</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>0.000448</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1">
+    <row r="116">
+      <c r="A116" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="n">
         <v>0.00024</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>0.000115</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>0.00014</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>0.000455</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1">
+    <row r="117">
+      <c r="A117" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="n">
         <v>0.000249</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>0.000117</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>0.000146</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>0.000483</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1">
+    <row r="118">
+      <c r="A118" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="n">
         <v>0.000253</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>0.000122</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>0.000146</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>0.000512</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1">
+    <row r="119">
+      <c r="A119" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B119">
+      <c r="B119" t="n">
         <v>0.000243</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>0.000116</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>0.000155</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>0.000515</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1">
+    <row r="120">
+      <c r="A120" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="B120">
+      <c r="B120" t="n">
         <v>0.00024</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>0.000115</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>0.000149</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>0.000492</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>